--- a/natmiOut/OldD0/LR-pairs_lrc2p/C3-Itgb2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/C3-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,60 +525,60 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.154991114260371</v>
+        <v>46.85851166666667</v>
       </c>
       <c r="H2">
-        <v>8.154991114260371</v>
+        <v>140.575535</v>
       </c>
       <c r="I2">
-        <v>0.0280441144078711</v>
+        <v>0.1419057303676978</v>
       </c>
       <c r="J2">
-        <v>0.0280441144078711</v>
+        <v>0.1419057303676978</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.164965513956626</v>
+        <v>83.95844533333333</v>
       </c>
       <c r="N2">
-        <v>0.164965513956626</v>
+        <v>251.875336</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9979754487867319</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9979754487867319</v>
       </c>
       <c r="Q2">
-        <v>1.34529230047568</v>
+        <v>3934.167790167195</v>
       </c>
       <c r="R2">
-        <v>1.34529230047568</v>
+        <v>35407.51011150476</v>
       </c>
       <c r="S2">
-        <v>0.0280441144078711</v>
+        <v>0.1416184349491122</v>
       </c>
       <c r="T2">
-        <v>0.0280441144078711</v>
+        <v>0.1416184349491122</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,57 +590,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>282.471973843355</v>
+        <v>46.85851166666667</v>
       </c>
       <c r="H3">
-        <v>282.471973843355</v>
+        <v>140.575535</v>
       </c>
       <c r="I3">
-        <v>0.9713899427343139</v>
+        <v>0.1419057303676978</v>
       </c>
       <c r="J3">
-        <v>0.9713899427343139</v>
+        <v>0.1419057303676978</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.164965513956626</v>
+        <v>0.170323</v>
       </c>
       <c r="N3">
-        <v>0.164965513956626</v>
+        <v>0.510969</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.002024551213268089</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.00202455121326809</v>
       </c>
       <c r="Q3">
-        <v>46.59813434341167</v>
+        <v>7.981082282601666</v>
       </c>
       <c r="R3">
-        <v>46.59813434341167</v>
+        <v>71.829740543415</v>
       </c>
       <c r="S3">
-        <v>0.9713899427343139</v>
+        <v>0.0002872954185856169</v>
       </c>
       <c r="T3">
-        <v>0.9713899427343139</v>
+        <v>0.000287295418585617</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,241 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>283.1772156666667</v>
+      </c>
+      <c r="H4">
+        <v>849.531647</v>
+      </c>
+      <c r="I4">
+        <v>0.8575703363889615</v>
+      </c>
+      <c r="J4">
+        <v>0.8575703363889616</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>83.95844533333333</v>
+      </c>
+      <c r="N4">
+        <v>251.875336</v>
+      </c>
+      <c r="O4">
+        <v>0.9979754487867319</v>
+      </c>
+      <c r="P4">
+        <v>0.9979754487867319</v>
+      </c>
+      <c r="Q4">
+        <v>23775.11878119538</v>
+      </c>
+      <c r="R4">
+        <v>213976.0690307584</v>
+      </c>
+      <c r="S4">
+        <v>0.8558341413239625</v>
+      </c>
+      <c r="T4">
+        <v>0.8558341413239626</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.164571393110754</v>
-      </c>
-      <c r="H4">
-        <v>0.164571393110754</v>
-      </c>
-      <c r="I4">
-        <v>0.000565942857815033</v>
-      </c>
-      <c r="J4">
-        <v>0.000565942857815033</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.164965513956626</v>
-      </c>
-      <c r="N4">
-        <v>0.164965513956626</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.02714860444707348</v>
-      </c>
-      <c r="R4">
-        <v>0.02714860444707348</v>
-      </c>
-      <c r="S4">
-        <v>0.000565942857815033</v>
-      </c>
-      <c r="T4">
-        <v>0.000565942857815033</v>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>283.1772156666667</v>
+      </c>
+      <c r="H5">
+        <v>849.531647</v>
+      </c>
+      <c r="I5">
+        <v>0.8575703363889615</v>
+      </c>
+      <c r="J5">
+        <v>0.8575703363889616</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.170323</v>
+      </c>
+      <c r="N5">
+        <v>0.510969</v>
+      </c>
+      <c r="O5">
+        <v>0.002024551213268089</v>
+      </c>
+      <c r="P5">
+        <v>0.00202455121326809</v>
+      </c>
+      <c r="Q5">
+        <v>48.23159290399366</v>
+      </c>
+      <c r="R5">
+        <v>434.084336135943</v>
+      </c>
+      <c r="S5">
+        <v>0.001736195064998995</v>
+      </c>
+      <c r="T5">
+        <v>0.001736195064998996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.1730073333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.519022</v>
+      </c>
+      <c r="I6">
+        <v>0.000523933243340694</v>
+      </c>
+      <c r="J6">
+        <v>0.000523933243340694</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>83.95844533333333</v>
+      </c>
+      <c r="N6">
+        <v>251.875336</v>
+      </c>
+      <c r="O6">
+        <v>0.9979754487867319</v>
+      </c>
+      <c r="P6">
+        <v>0.9979754487867319</v>
+      </c>
+      <c r="Q6">
+        <v>14.52542673793244</v>
+      </c>
+      <c r="R6">
+        <v>130.728840641392</v>
+      </c>
+      <c r="S6">
+        <v>0.0005228725136572172</v>
+      </c>
+      <c r="T6">
+        <v>0.0005228725136572172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.1730073333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.519022</v>
+      </c>
+      <c r="I7">
+        <v>0.000523933243340694</v>
+      </c>
+      <c r="J7">
+        <v>0.000523933243340694</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.170323</v>
+      </c>
+      <c r="N7">
+        <v>0.510969</v>
+      </c>
+      <c r="O7">
+        <v>0.002024551213268089</v>
+      </c>
+      <c r="P7">
+        <v>0.00202455121326809</v>
+      </c>
+      <c r="Q7">
+        <v>0.02946712803533333</v>
+      </c>
+      <c r="R7">
+        <v>0.265204152318</v>
+      </c>
+      <c r="S7">
+        <v>1.060729683476887E-06</v>
+      </c>
+      <c r="T7">
+        <v>1.060729683476887E-06</v>
       </c>
     </row>
   </sheetData>
